--- a/Budget_2024.xlsx
+++ b/Budget_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pythonfail\My_Project\budget_lamer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39A3A4-2EB4-4605-9935-D3561607F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ADD78F-7EE5-47BA-9530-B575457F388B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2383,9 +2383,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,6 +2395,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Денежный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2406,69 +2404,7 @@
     <cellStyle name="Процентный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill>
@@ -18733,8 +18669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A39BFF-B7C2-493B-BE99-8F19D27A90F2}">
   <dimension ref="A1:Z82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18768,54 +18704,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="352" t="s">
+      <c r="A1" s="351" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="352"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="355" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="354" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="356"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="353"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
       <c r="X1" s="350"/>
       <c r="Y1" s="346"/>
       <c r="Z1" s="338"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="355" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="356" t="s">
+      <c r="B2" s="355" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="352" t="s">
+      <c r="C2" s="351" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="352" t="s">
+      <c r="D2" s="351" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="358" t="s">
+      <c r="E2" s="357" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="358" t="s">
+      <c r="F2" s="357" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="353"/>
+      <c r="G2" s="352"/>
       <c r="H2" s="287"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
+      <c r="J2" s="352"/>
+      <c r="K2" s="352"/>
+      <c r="L2" s="352"/>
+      <c r="M2" s="352"/>
+      <c r="N2" s="352"/>
       <c r="X2" s="288"/>
       <c r="Y2" s="289"/>
     </row>
@@ -18827,23 +18763,23 @@
         <f>IFERROR(--LEFT(A3),0)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353">
+      <c r="C3" s="352"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="352">
         <f>C3-D3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="359" t="e">
+      <c r="F3" s="358" t="e">
         <f>(D3-C3)/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="353"/>
+      <c r="G3" s="352"/>
       <c r="H3" s="287"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="353"/>
-      <c r="M3" s="353"/>
-      <c r="N3" s="353"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
       <c r="X3" s="288"/>
       <c r="Y3" s="289"/>
     </row>
@@ -18855,23 +18791,23 @@
         <f t="shared" ref="B4:B58" si="0">IFERROR(--LEFT(A4),0)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353"/>
-      <c r="E4" s="353">
+      <c r="C4" s="352"/>
+      <c r="D4" s="359"/>
+      <c r="E4" s="352">
         <f t="shared" ref="E4:E58" si="1">C4-D4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="359" t="e">
+      <c r="F4" s="358" t="e">
         <f t="shared" ref="F4:F58" si="2">(D4-C4)/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="353"/>
+      <c r="G4" s="352"/>
       <c r="H4" s="287"/>
-      <c r="J4" s="353"/>
-      <c r="K4" s="353"/>
-      <c r="L4" s="353"/>
-      <c r="M4" s="353"/>
-      <c r="N4" s="353"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="352"/>
+      <c r="N4" s="352"/>
       <c r="X4" s="288"/>
       <c r="Y4" s="289"/>
     </row>
@@ -18884,12 +18820,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="291"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="353">
+      <c r="D5" s="359"/>
+      <c r="E5" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="359" t="e">
+      <c r="F5" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -18906,28 +18842,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C6" s="353"/>
-      <c r="D6" s="353"/>
-      <c r="E6" s="353">
+      <c r="C6" s="352"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="359" t="e">
+      <c r="F6" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="353"/>
+      <c r="G6" s="352"/>
       <c r="H6" s="287"/>
-      <c r="J6" s="352"/>
-      <c r="K6" s="353"/>
-      <c r="L6" s="353"/>
-      <c r="M6" s="353"/>
-      <c r="N6" s="353"/>
-      <c r="O6" s="353"/>
-      <c r="Q6" s="356"/>
-      <c r="R6" s="353"/>
-      <c r="S6" s="353"/>
-      <c r="T6" s="353"/>
+      <c r="J6" s="351"/>
+      <c r="K6" s="352"/>
+      <c r="L6" s="352"/>
+      <c r="M6" s="352"/>
+      <c r="N6" s="352"/>
+      <c r="O6" s="352"/>
+      <c r="Q6" s="355"/>
+      <c r="R6" s="352"/>
+      <c r="S6" s="352"/>
+      <c r="T6" s="352"/>
       <c r="X6" s="288"/>
       <c r="Y6" s="289"/>
     </row>
@@ -18940,12 +18876,12 @@
         <v>1</v>
       </c>
       <c r="C7" s="287"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="353">
+      <c r="D7" s="359"/>
+      <c r="E7" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="359" t="e">
+      <c r="F7" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -18973,12 +18909,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="287"/>
-      <c r="D8" s="287"/>
-      <c r="E8" s="353">
+      <c r="D8" s="359"/>
+      <c r="E8" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="359" t="e">
+      <c r="F8" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19000,12 +18936,12 @@
         <v>3</v>
       </c>
       <c r="C9" s="296"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="353">
+      <c r="D9" s="359"/>
+      <c r="E9" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="359" t="e">
+      <c r="F9" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19027,12 +18963,12 @@
         <v>0</v>
       </c>
       <c r="C10" s="292"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="353">
+      <c r="D10" s="359"/>
+      <c r="E10" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="359" t="e">
+      <c r="F10" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19052,12 +18988,12 @@
         <v>1</v>
       </c>
       <c r="C11" s="292"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="353">
+      <c r="D11" s="359"/>
+      <c r="E11" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="359" t="e">
+      <c r="F11" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19077,12 +19013,12 @@
         <v>2</v>
       </c>
       <c r="C12" s="296"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="353">
+      <c r="D12" s="359"/>
+      <c r="E12" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="359" t="e">
+      <c r="F12" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19102,12 +19038,12 @@
         <v>0</v>
       </c>
       <c r="C13" s="292"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="353">
+      <c r="D13" s="359"/>
+      <c r="E13" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="359" t="e">
+      <c r="F13" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19129,12 +19065,12 @@
         <v>0</v>
       </c>
       <c r="C14" s="292"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="353">
+      <c r="D14" s="359"/>
+      <c r="E14" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="359" t="e">
+      <c r="F14" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19162,12 +19098,12 @@
         <v>0</v>
       </c>
       <c r="C15" s="292"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="353">
+      <c r="D15" s="359"/>
+      <c r="E15" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F15" s="359" t="e">
+      <c r="F15" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19196,12 +19132,12 @@
         <v>1</v>
       </c>
       <c r="C16" s="296"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="353">
+      <c r="D16" s="359"/>
+      <c r="E16" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="359" t="e">
+      <c r="F16" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19224,23 +19160,23 @@
         <v>2</v>
       </c>
       <c r="C17" s="292"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="353">
+      <c r="D17" s="359"/>
+      <c r="E17" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="359" t="e">
+      <c r="F17" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="289"/>
       <c r="H17" s="287"/>
-      <c r="J17" s="352"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353"/>
+      <c r="J17" s="351"/>
+      <c r="K17" s="352"/>
+      <c r="L17" s="352"/>
+      <c r="M17" s="352"/>
+      <c r="N17" s="352"/>
+      <c r="O17" s="352"/>
       <c r="Q17" s="303"/>
       <c r="R17" s="309"/>
       <c r="S17" s="307"/>
@@ -19258,12 +19194,12 @@
         <v>3</v>
       </c>
       <c r="C18" s="292"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="353">
+      <c r="D18" s="359"/>
+      <c r="E18" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="359" t="e">
+      <c r="F18" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19290,12 +19226,12 @@
         <v>4</v>
       </c>
       <c r="C19" s="296"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="353">
+      <c r="D19" s="359"/>
+      <c r="E19" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="359" t="e">
+      <c r="F19" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19323,12 +19259,12 @@
         <v>0</v>
       </c>
       <c r="C20" s="296"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="353">
+      <c r="D20" s="359"/>
+      <c r="E20" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="359" t="e">
+      <c r="F20" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19349,12 +19285,12 @@
         <v>0</v>
       </c>
       <c r="C21" s="296"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="353">
+      <c r="D21" s="359"/>
+      <c r="E21" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="359" t="e">
+      <c r="F21" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19375,12 +19311,12 @@
         <v>1</v>
       </c>
       <c r="C22" s="292"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="353">
+      <c r="D22" s="359"/>
+      <c r="E22" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="359" t="e">
+      <c r="F22" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19402,12 +19338,12 @@
         <v>2</v>
       </c>
       <c r="C23" s="292"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="353">
+      <c r="D23" s="359"/>
+      <c r="E23" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="359" t="e">
+      <c r="F23" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19423,23 +19359,23 @@
         <v>3</v>
       </c>
       <c r="C24" s="292"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="353">
+      <c r="D24" s="359"/>
+      <c r="E24" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="359" t="e">
+      <c r="F24" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="289"/>
       <c r="H24" s="287"/>
-      <c r="J24" s="352"/>
-      <c r="K24" s="353"/>
-      <c r="L24" s="353"/>
-      <c r="M24" s="353"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="353"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="352"/>
+      <c r="L24" s="352"/>
+      <c r="M24" s="352"/>
+      <c r="N24" s="352"/>
+      <c r="O24" s="352"/>
     </row>
     <row r="25" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="286" t="s">
@@ -19450,12 +19386,12 @@
         <v>4</v>
       </c>
       <c r="C25" s="292"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="353">
+      <c r="D25" s="359"/>
+      <c r="E25" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="359" t="e">
+      <c r="F25" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19477,12 +19413,12 @@
         <v>0</v>
       </c>
       <c r="C26" s="296"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="353">
+      <c r="D26" s="359"/>
+      <c r="E26" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="359" t="e">
+      <c r="F26" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19503,12 +19439,12 @@
         <v>1</v>
       </c>
       <c r="C27" s="296"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="353">
+      <c r="D27" s="359"/>
+      <c r="E27" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="359" t="e">
+      <c r="F27" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19529,12 +19465,12 @@
         <v>2</v>
       </c>
       <c r="C28" s="292"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="353">
+      <c r="D28" s="359"/>
+      <c r="E28" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="359" t="e">
+      <c r="F28" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19555,12 +19491,12 @@
         <v>3</v>
       </c>
       <c r="C29" s="292"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="353">
+      <c r="D29" s="359"/>
+      <c r="E29" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="359" t="e">
+      <c r="F29" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19576,20 +19512,20 @@
         <v>0</v>
       </c>
       <c r="C30" s="292"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="353">
+      <c r="D30" s="359"/>
+      <c r="E30" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="359" t="e">
+      <c r="F30" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="289"/>
       <c r="H30" s="287"/>
-      <c r="J30" s="352"/>
-      <c r="K30" s="353"/>
-      <c r="L30" s="353"/>
+      <c r="J30" s="351"/>
+      <c r="K30" s="352"/>
+      <c r="L30" s="352"/>
       <c r="M30" s="297"/>
     </row>
     <row r="31" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19601,12 +19537,12 @@
         <v>1</v>
       </c>
       <c r="C31" s="296"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="353">
+      <c r="D31" s="359"/>
+      <c r="E31" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="359" t="e">
+      <c r="F31" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19628,12 +19564,12 @@
         <v>2</v>
       </c>
       <c r="C32" s="292"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="353">
+      <c r="D32" s="359"/>
+      <c r="E32" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="359" t="e">
+      <c r="F32" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19655,12 +19591,12 @@
         <v>3</v>
       </c>
       <c r="C33" s="292"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="353">
+      <c r="D33" s="359"/>
+      <c r="E33" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="359" t="e">
+      <c r="F33" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19682,12 +19618,12 @@
         <v>4</v>
       </c>
       <c r="C34" s="292"/>
-      <c r="D34" s="288"/>
-      <c r="E34" s="353">
+      <c r="D34" s="359"/>
+      <c r="E34" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="359" t="e">
+      <c r="F34" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19709,12 +19645,12 @@
         <v>0</v>
       </c>
       <c r="C35" s="346"/>
-      <c r="D35" s="350"/>
-      <c r="E35" s="353">
+      <c r="D35" s="359"/>
+      <c r="E35" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="359" t="e">
+      <c r="F35" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19736,12 +19672,12 @@
         <v>0</v>
       </c>
       <c r="C36" s="296"/>
-      <c r="D36" s="288"/>
-      <c r="E36" s="353">
+      <c r="D36" s="359"/>
+      <c r="E36" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="359" t="e">
+      <c r="F36" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19757,12 +19693,12 @@
         <v>0</v>
       </c>
       <c r="C37" s="294"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="353">
+      <c r="D37" s="359"/>
+      <c r="E37" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="359" t="e">
+      <c r="F37" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19778,12 +19714,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="294"/>
-      <c r="D38" s="288"/>
-      <c r="E38" s="353">
+      <c r="D38" s="359"/>
+      <c r="E38" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="359" t="e">
+      <c r="F38" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19799,12 +19735,12 @@
         <v>2</v>
       </c>
       <c r="C39" s="294"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="353">
+      <c r="D39" s="359"/>
+      <c r="E39" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="359" t="e">
+      <c r="F39" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19820,12 +19756,12 @@
         <v>3</v>
       </c>
       <c r="C40" s="294"/>
-      <c r="D40" s="288"/>
-      <c r="E40" s="353">
+      <c r="D40" s="359"/>
+      <c r="E40" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="359" t="e">
+      <c r="F40" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19841,12 +19777,12 @@
         <v>4</v>
       </c>
       <c r="C41" s="296"/>
-      <c r="D41" s="288"/>
-      <c r="E41" s="353">
+      <c r="D41" s="359"/>
+      <c r="E41" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="359" t="e">
+      <c r="F41" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19862,12 +19798,12 @@
         <v>5</v>
       </c>
       <c r="C42" s="296"/>
-      <c r="D42" s="288"/>
-      <c r="E42" s="353">
+      <c r="D42" s="359"/>
+      <c r="E42" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="359" t="e">
+      <c r="F42" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19883,12 +19819,12 @@
         <v>6</v>
       </c>
       <c r="C43" s="296"/>
-      <c r="D43" s="288"/>
-      <c r="E43" s="353">
+      <c r="D43" s="359"/>
+      <c r="E43" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="359" t="e">
+      <c r="F43" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19904,12 +19840,12 @@
         <v>7</v>
       </c>
       <c r="C44" s="294"/>
-      <c r="D44" s="288"/>
-      <c r="E44" s="353">
+      <c r="D44" s="359"/>
+      <c r="E44" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="359" t="e">
+      <c r="F44" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19925,12 +19861,12 @@
         <v>8</v>
       </c>
       <c r="C45" s="294"/>
-      <c r="D45" s="288"/>
-      <c r="E45" s="353">
+      <c r="D45" s="359"/>
+      <c r="E45" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="359" t="e">
+      <c r="F45" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19946,12 +19882,12 @@
         <v>0</v>
       </c>
       <c r="C46" s="294"/>
-      <c r="D46" s="288"/>
-      <c r="E46" s="353">
+      <c r="D46" s="359"/>
+      <c r="E46" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="359" t="e">
+      <c r="F46" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19967,12 +19903,12 @@
         <v>0</v>
       </c>
       <c r="C47" s="294"/>
-      <c r="D47" s="288"/>
-      <c r="E47" s="353">
+      <c r="D47" s="359"/>
+      <c r="E47" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F47" s="359" t="e">
+      <c r="F47" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -19988,12 +19924,12 @@
         <v>0</v>
       </c>
       <c r="C48" s="294"/>
-      <c r="D48" s="288"/>
-      <c r="E48" s="353">
+      <c r="D48" s="359"/>
+      <c r="E48" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="359" t="e">
+      <c r="F48" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20009,12 +19945,12 @@
         <v>0</v>
       </c>
       <c r="C49" s="294"/>
-      <c r="D49" s="288"/>
-      <c r="E49" s="353">
+      <c r="D49" s="359"/>
+      <c r="E49" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="359" t="e">
+      <c r="F49" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20030,12 +19966,12 @@
         <v>1</v>
       </c>
       <c r="C50" s="294"/>
-      <c r="D50" s="288"/>
-      <c r="E50" s="353">
+      <c r="D50" s="359"/>
+      <c r="E50" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F50" s="359" t="e">
+      <c r="F50" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20051,12 +19987,12 @@
         <v>2</v>
       </c>
       <c r="C51" s="294"/>
-      <c r="D51" s="288"/>
-      <c r="E51" s="353">
+      <c r="D51" s="359"/>
+      <c r="E51" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F51" s="359" t="e">
+      <c r="F51" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20072,12 +20008,12 @@
         <v>3</v>
       </c>
       <c r="C52" s="296"/>
-      <c r="D52" s="288"/>
-      <c r="E52" s="353">
+      <c r="D52" s="359"/>
+      <c r="E52" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F52" s="359" t="e">
+      <c r="F52" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20093,12 +20029,12 @@
         <v>4</v>
       </c>
       <c r="C53" s="296"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="353">
+      <c r="D53" s="359"/>
+      <c r="E53" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F53" s="359" t="e">
+      <c r="F53" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20114,12 +20050,12 @@
         <v>5</v>
       </c>
       <c r="C54" s="287"/>
-      <c r="D54" s="351"/>
-      <c r="E54" s="353">
+      <c r="D54" s="359"/>
+      <c r="E54" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="359" t="e">
+      <c r="F54" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20135,12 +20071,12 @@
         <v>0</v>
       </c>
       <c r="C55" s="296"/>
-      <c r="D55" s="288"/>
-      <c r="E55" s="353">
+      <c r="D55" s="359"/>
+      <c r="E55" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F55" s="359" t="e">
+      <c r="F55" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20156,12 +20092,12 @@
         <v>0</v>
       </c>
       <c r="C56" s="294"/>
-      <c r="D56" s="288"/>
-      <c r="E56" s="353">
+      <c r="D56" s="359"/>
+      <c r="E56" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="359" t="e">
+      <c r="F56" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20177,12 +20113,12 @@
         <v>0</v>
       </c>
       <c r="C57" s="294"/>
-      <c r="D57" s="288"/>
-      <c r="E57" s="353">
+      <c r="D57" s="359"/>
+      <c r="E57" s="352">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F57" s="359" t="e">
+      <c r="F57" s="358" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -20202,8 +20138,8 @@
         <f>SUMIF($B$3:$B$57, "&lt;&gt;0", $D$3:$D$57)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="353"/>
-      <c r="F58" s="359"/>
+      <c r="E58" s="352"/>
+      <c r="F58" s="358"/>
       <c r="G58" s="289"/>
       <c r="H58" s="287"/>
     </row>
@@ -20273,186 +20209,186 @@
       <c r="M66" s="344"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="354"/>
-      <c r="B67" s="354"/>
-      <c r="C67" s="353"/>
-      <c r="D67" s="353"/>
-      <c r="E67" s="353"/>
-      <c r="F67" s="353"/>
-      <c r="G67" s="353"/>
-      <c r="H67" s="353"/>
+      <c r="A67" s="353"/>
+      <c r="B67" s="353"/>
+      <c r="C67" s="352"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="352"/>
+      <c r="F67" s="352"/>
+      <c r="G67" s="352"/>
+      <c r="H67" s="352"/>
       <c r="K67" s="345"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="353"/>
-      <c r="B68" s="353"/>
-      <c r="C68" s="353"/>
-      <c r="D68" s="353"/>
-      <c r="E68" s="353"/>
-      <c r="F68" s="353"/>
-      <c r="G68" s="353"/>
-      <c r="H68" s="353"/>
+      <c r="A68" s="352"/>
+      <c r="B68" s="352"/>
+      <c r="C68" s="352"/>
+      <c r="D68" s="352"/>
+      <c r="E68" s="352"/>
+      <c r="F68" s="352"/>
+      <c r="G68" s="352"/>
+      <c r="H68" s="352"/>
       <c r="J68" s="346"/>
       <c r="K68" s="346"/>
       <c r="L68" s="346"/>
       <c r="M68" s="346"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="353"/>
-      <c r="B69" s="353"/>
-      <c r="C69" s="353"/>
-      <c r="D69" s="353"/>
-      <c r="E69" s="353"/>
-      <c r="F69" s="353"/>
-      <c r="G69" s="353"/>
-      <c r="H69" s="353"/>
+      <c r="A69" s="352"/>
+      <c r="B69" s="352"/>
+      <c r="C69" s="352"/>
+      <c r="D69" s="352"/>
+      <c r="E69" s="352"/>
+      <c r="F69" s="352"/>
+      <c r="G69" s="352"/>
+      <c r="H69" s="352"/>
       <c r="J69" s="295"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="353"/>
-      <c r="B70" s="353"/>
-      <c r="C70" s="353"/>
-      <c r="D70" s="353"/>
-      <c r="E70" s="353"/>
-      <c r="F70" s="353"/>
-      <c r="G70" s="353"/>
-      <c r="H70" s="353"/>
+      <c r="A70" s="352"/>
+      <c r="B70" s="352"/>
+      <c r="C70" s="352"/>
+      <c r="D70" s="352"/>
+      <c r="E70" s="352"/>
+      <c r="F70" s="352"/>
+      <c r="G70" s="352"/>
+      <c r="H70" s="352"/>
       <c r="K70" s="347"/>
       <c r="L70" s="347"/>
       <c r="M70" s="348"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="353"/>
-      <c r="B71" s="353"/>
-      <c r="C71" s="353"/>
-      <c r="D71" s="353"/>
-      <c r="E71" s="353"/>
-      <c r="F71" s="353"/>
-      <c r="G71" s="353"/>
-      <c r="H71" s="353"/>
+      <c r="A71" s="352"/>
+      <c r="B71" s="352"/>
+      <c r="C71" s="352"/>
+      <c r="D71" s="352"/>
+      <c r="E71" s="352"/>
+      <c r="F71" s="352"/>
+      <c r="G71" s="352"/>
+      <c r="H71" s="352"/>
       <c r="K71" s="347"/>
       <c r="L71" s="347"/>
       <c r="M71" s="348"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="353"/>
-      <c r="B72" s="353"/>
-      <c r="C72" s="353"/>
-      <c r="D72" s="353"/>
-      <c r="E72" s="353"/>
-      <c r="F72" s="353"/>
-      <c r="G72" s="353"/>
-      <c r="H72" s="353"/>
+      <c r="A72" s="352"/>
+      <c r="B72" s="352"/>
+      <c r="C72" s="352"/>
+      <c r="D72" s="352"/>
+      <c r="E72" s="352"/>
+      <c r="F72" s="352"/>
+      <c r="G72" s="352"/>
+      <c r="H72" s="352"/>
       <c r="K72" s="347"/>
       <c r="L72" s="347"/>
       <c r="M72" s="348"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="353"/>
-      <c r="B73" s="353"/>
-      <c r="C73" s="353"/>
-      <c r="D73" s="353"/>
-      <c r="E73" s="353"/>
-      <c r="F73" s="353"/>
-      <c r="G73" s="353"/>
-      <c r="H73" s="353"/>
+      <c r="A73" s="352"/>
+      <c r="B73" s="352"/>
+      <c r="C73" s="352"/>
+      <c r="D73" s="352"/>
+      <c r="E73" s="352"/>
+      <c r="F73" s="352"/>
+      <c r="G73" s="352"/>
+      <c r="H73" s="352"/>
       <c r="J73" s="295"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="353"/>
-      <c r="B74" s="353"/>
-      <c r="C74" s="353"/>
-      <c r="D74" s="353"/>
-      <c r="E74" s="353"/>
-      <c r="F74" s="353"/>
-      <c r="G74" s="353"/>
-      <c r="H74" s="353"/>
+      <c r="A74" s="352"/>
+      <c r="B74" s="352"/>
+      <c r="C74" s="352"/>
+      <c r="D74" s="352"/>
+      <c r="E74" s="352"/>
+      <c r="F74" s="352"/>
+      <c r="G74" s="352"/>
+      <c r="H74" s="352"/>
       <c r="K74" s="347"/>
       <c r="L74" s="347"/>
       <c r="M74" s="348"/>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="353"/>
-      <c r="B75" s="353"/>
-      <c r="C75" s="353"/>
-      <c r="D75" s="353"/>
-      <c r="E75" s="353"/>
-      <c r="F75" s="353"/>
-      <c r="G75" s="353"/>
-      <c r="H75" s="353"/>
+      <c r="A75" s="352"/>
+      <c r="B75" s="352"/>
+      <c r="C75" s="352"/>
+      <c r="D75" s="352"/>
+      <c r="E75" s="352"/>
+      <c r="F75" s="352"/>
+      <c r="G75" s="352"/>
+      <c r="H75" s="352"/>
       <c r="K75" s="347"/>
       <c r="L75" s="347"/>
       <c r="M75" s="349"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="353"/>
-      <c r="B76" s="353"/>
-      <c r="C76" s="353"/>
-      <c r="D76" s="353"/>
-      <c r="E76" s="353"/>
-      <c r="F76" s="353"/>
-      <c r="G76" s="353"/>
-      <c r="H76" s="353"/>
+      <c r="A76" s="352"/>
+      <c r="B76" s="352"/>
+      <c r="C76" s="352"/>
+      <c r="D76" s="352"/>
+      <c r="E76" s="352"/>
+      <c r="F76" s="352"/>
+      <c r="G76" s="352"/>
+      <c r="H76" s="352"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="353"/>
-      <c r="B77" s="353"/>
-      <c r="C77" s="353"/>
-      <c r="D77" s="353"/>
-      <c r="E77" s="353"/>
-      <c r="F77" s="353"/>
-      <c r="G77" s="353"/>
-      <c r="H77" s="353"/>
+      <c r="A77" s="352"/>
+      <c r="B77" s="352"/>
+      <c r="C77" s="352"/>
+      <c r="D77" s="352"/>
+      <c r="E77" s="352"/>
+      <c r="F77" s="352"/>
+      <c r="G77" s="352"/>
+      <c r="H77" s="352"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="353"/>
-      <c r="B78" s="353"/>
-      <c r="C78" s="353"/>
-      <c r="D78" s="353"/>
-      <c r="E78" s="353"/>
-      <c r="F78" s="353"/>
-      <c r="G78" s="353"/>
-      <c r="H78" s="353"/>
+      <c r="A78" s="352"/>
+      <c r="B78" s="352"/>
+      <c r="C78" s="352"/>
+      <c r="D78" s="352"/>
+      <c r="E78" s="352"/>
+      <c r="F78" s="352"/>
+      <c r="G78" s="352"/>
+      <c r="H78" s="352"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="353"/>
-      <c r="B79" s="353"/>
-      <c r="C79" s="353"/>
-      <c r="D79" s="353"/>
-      <c r="E79" s="353"/>
-      <c r="F79" s="353"/>
-      <c r="G79" s="353"/>
-      <c r="H79" s="353"/>
+      <c r="A79" s="352"/>
+      <c r="B79" s="352"/>
+      <c r="C79" s="352"/>
+      <c r="D79" s="352"/>
+      <c r="E79" s="352"/>
+      <c r="F79" s="352"/>
+      <c r="G79" s="352"/>
+      <c r="H79" s="352"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="353"/>
-      <c r="B80" s="353"/>
-      <c r="C80" s="353"/>
-      <c r="D80" s="353"/>
-      <c r="E80" s="353"/>
-      <c r="F80" s="353"/>
-      <c r="G80" s="353"/>
-      <c r="H80" s="353"/>
+      <c r="A80" s="352"/>
+      <c r="B80" s="352"/>
+      <c r="C80" s="352"/>
+      <c r="D80" s="352"/>
+      <c r="E80" s="352"/>
+      <c r="F80" s="352"/>
+      <c r="G80" s="352"/>
+      <c r="H80" s="352"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="353"/>
-      <c r="B81" s="353"/>
-      <c r="C81" s="353"/>
-      <c r="D81" s="353"/>
-      <c r="E81" s="353"/>
-      <c r="F81" s="353"/>
-      <c r="G81" s="353"/>
-      <c r="H81" s="353"/>
+      <c r="A81" s="352"/>
+      <c r="B81" s="352"/>
+      <c r="C81" s="352"/>
+      <c r="D81" s="352"/>
+      <c r="E81" s="352"/>
+      <c r="F81" s="352"/>
+      <c r="G81" s="352"/>
+      <c r="H81" s="352"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="353"/>
-      <c r="B82" s="353"/>
-      <c r="C82" s="353"/>
-      <c r="D82" s="353"/>
-      <c r="E82" s="353"/>
-      <c r="F82" s="353"/>
-      <c r="G82" s="353"/>
-      <c r="H82" s="353"/>
+      <c r="A82" s="352"/>
+      <c r="B82" s="352"/>
+      <c r="C82" s="352"/>
+      <c r="D82" s="352"/>
+      <c r="E82" s="352"/>
+      <c r="F82" s="352"/>
+      <c r="G82" s="352"/>
+      <c r="H82" s="352"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Budget_2024.xlsx
+++ b/Budget_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pythonfail\My_Project\budget_lamer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD2408-D09D-496C-9726-31AC445B099E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136BE236-B4C8-4DA9-BB83-DD60F1AA7143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11640,7 +11640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -16280,7 +16280,7 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:P17"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18684,8 +18684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A39BFF-B7C2-493B-BE99-8F19D27A90F2}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Budget_2024.xlsx
+++ b/Budget_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pythonfail\My_Project\budget_lamer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136BE236-B4C8-4DA9-BB83-DD60F1AA7143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BEC1F0-E552-4A0E-8217-493615147A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1690,7 +1690,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -2471,6 +2471,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18685,7 +18697,7 @@
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J32" sqref="J32:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19561,7 +19573,7 @@
       </c>
       <c r="H32" s="341"/>
       <c r="I32" s="342"/>
-      <c r="J32" s="343"/>
+      <c r="J32" s="348"/>
       <c r="K32" s="343"/>
       <c r="L32" s="266"/>
       <c r="M32" s="330"/>
@@ -19587,7 +19599,7 @@
       </c>
       <c r="H33" s="341"/>
       <c r="I33" s="344"/>
-      <c r="J33" s="345"/>
+      <c r="J33" s="349"/>
       <c r="K33" s="345"/>
       <c r="L33" s="266"/>
       <c r="M33" s="330"/>
@@ -19613,7 +19625,7 @@
       </c>
       <c r="H34" s="341"/>
       <c r="I34" s="344"/>
-      <c r="J34" s="307"/>
+      <c r="J34" s="350"/>
       <c r="K34" s="307"/>
       <c r="L34" s="266"/>
       <c r="M34" s="330"/>
@@ -19639,7 +19651,7 @@
       </c>
       <c r="H35" s="341"/>
       <c r="I35" s="346"/>
-      <c r="J35" s="347"/>
+      <c r="J35" s="351"/>
       <c r="K35" s="347"/>
       <c r="L35" s="272"/>
       <c r="M35" s="273"/>
